--- a/DADOS/Planilhas/Atributos.xlsx
+++ b/DADOS/Planilhas/Atributos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3pb33j-my.sharepoint.com/personal/cristianosseng_3pb33j_onmicrosoft_com/Documents/Geoprocessamento/TCC/Dados/Tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3pb33j-my.sharepoint.com/personal/cristianosseng_3pb33j_onmicrosoft_com/Documents/Geoprocessamento/TCC/TCC_Python/DADOS/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15EA44BD-6FCC-41C6-8425-ADB56F47DEB7}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A95523-5E54-41BA-BB33-0104C67994A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
+    <workbookView xWindow="-16320" yWindow="-4530" windowWidth="16440" windowHeight="28440" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -330,6 +330,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +671,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +720,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -743,7 +746,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -766,7 +769,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -838,7 +841,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -864,7 +867,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -890,7 +893,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -916,7 +919,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -942,7 +945,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -965,7 +968,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -991,7 +994,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1017,7 +1020,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">

--- a/DADOS/Planilhas/Atributos.xlsx
+++ b/DADOS/Planilhas/Atributos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3pb33j-my.sharepoint.com/personal/cristianosseng_3pb33j_onmicrosoft_com/Documents/Geoprocessamento/TCC/TCC_Python/DADOS/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A95523-5E54-41BA-BB33-0104C67994A2}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086E9137-A050-476F-AF36-06DD6D83152E}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4530" windowWidth="16440" windowHeight="28440" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>NM_ARQ</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>UNACON_Santa_Casa_de_Misericordia.jpg</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +739,10 @@
         <v>38</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -785,10 +785,10 @@
         <v>38</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -808,10 +808,10 @@
         <v>41</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -834,10 +834,10 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -860,10 +860,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -912,10 +912,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -961,10 +961,10 @@
         <v>43</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/DADOS/Planilhas/Atributos.xlsx
+++ b/DADOS/Planilhas/Atributos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3pb33j-my.sharepoint.com/personal/cristianosseng_3pb33j_onmicrosoft_com/Documents/Geoprocessamento/TCC/TCC_Python/DADOS/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086E9137-A050-476F-AF36-06DD6D83152E}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CCF46C-E68E-494C-A6F1-33EA40232548}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,223 +36,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NM_PT</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>SERVICOS</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>ENDERECO</t>
+  </si>
+  <si>
+    <t>ICONE</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>NM_ARQ</t>
+  </si>
+  <si>
+    <t>CACON/Hospital Aristides Maltês (HAM)</t>
+  </si>
+  <si>
+    <t>ALTA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirurgias, radioterapia, quimioterapia, além de cuidados paliativos e unidades de oncopediatria. </t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Av. Dom João VI,  332, Brotas, Salvador - BA</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>CACON_Hospital_Aristides_Maltes_HAM.jpg</t>
+  </si>
+  <si>
+    <t>Clínica de Hemodiálise de Irecê</t>
+  </si>
+  <si>
+    <t>Dialise, consulta multiprofissional e exames</t>
+  </si>
+  <si>
+    <t>Irecê</t>
+  </si>
+  <si>
+    <t>Rua Natanael Nunes Dourado, SN, Irecê.  CEP  44864-06</t>
+  </si>
+  <si>
+    <t>hand-holding-droplet</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Clinica_de_Hemodialise_de_Irece.jpg</t>
+  </si>
+  <si>
+    <t>Hospital Regional Dr. Mário Dourado Sobrinho</t>
+  </si>
+  <si>
+    <t>MÉDIA E ALTA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>Serviço de diagnose e terapia, ambulatório de especialidades e internação, centro de parto normal</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Praça teodoro sampaio, s/n - Centro, Irecê - BA, 44900-000</t>
+    </r>
+  </si>
+  <si>
+    <t>Hospital_Regional_Dr_Mario_Dourado_Sobrinho.jpg</t>
+  </si>
+  <si>
+    <t>Policlínica Regional de Irecê</t>
+  </si>
+  <si>
+    <t>MÉDIA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>Apoio Diagnóstico com serviços de consultas clínicas especializadas em exames gráficos e de imagem</t>
+  </si>
+  <si>
+    <t>BA-052 - Irecê, BA, 44900-000</t>
+  </si>
+  <si>
+    <t>house-chimney-medical</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Policlinica_Regional_de_Irece.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Hospital da Mulher</t>
+  </si>
+  <si>
+    <t>Quimioterapia, radioterapia (em fase de implantação), além de atendimento ambulatorial e internação para tratamento do câncer, incluindo o câncer de mama e colo do útero. </t>
+  </si>
+  <si>
+    <t>R. Barão de Cotegipe, 1153, Roma, Salvador - BA, 40411-900</t>
+  </si>
+  <si>
+    <t>circle-radiation</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>UNACON_Hospital_da_Mulher.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Hospital Geral Roberto Santos/CICAN</t>
+  </si>
+  <si>
+    <t>Cirurgia, radioterapia e quimioterapia</t>
+  </si>
+  <si>
+    <t>R. Direta do Saboeiro, s/n,  Cabula, Salvador - BA, 40301-110</t>
+  </si>
+  <si>
+    <t>UNACON_Hospital_Geral_Roberto_Santos_CICAN.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Hospital Regional de Juazeiro</t>
+  </si>
+  <si>
+    <t>Juazeiro</t>
+  </si>
+  <si>
+    <t>R. Santo Antonio, s/n,  Juazeiro - BA, 48902-010</t>
+  </si>
+  <si>
+    <t>UNACON_Hospital_Regional_de_Juazeiro.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Hospital Santa Izabel</t>
+  </si>
+  <si>
+    <t>Quimioterapia, consultas clínicas, tratamentos avançados, atendimento de urgência e emergência, intervenção cirúrgica, radioterapia. </t>
+  </si>
+  <si>
+    <t>Praça Conselheiro Almeida Couto, 500, Nazaré, Salvador - BA. </t>
+  </si>
+  <si>
+    <t>UNACON_Hospital_Santa_Izabel.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Hospital São José/Santa Casa de Misericórdia de Ilhéus</t>
+  </si>
+  <si>
+    <t>Ilhéus</t>
+  </si>
+  <si>
+    <t>R. Ladeira da Vitória, 113, Centro, Ilhéus - BA, 45653-420</t>
+  </si>
+  <si>
+    <t>UNACON_Hospital_Sao_Jose_Santa_Casa_de_Misericordia_de_Ilheus.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Irecê</t>
+  </si>
+  <si>
+    <t>Oncologia clínica e cirúrgica, quimioterapia, mastologia, urologia e ginecologia</t>
+  </si>
+  <si>
+    <t>UNACON_Irece.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Martagão Gesteira</t>
+  </si>
+  <si>
+    <t>Oncopediatria</t>
+  </si>
+  <si>
+    <t>R. José Duarte, 114, Tororó. Salvador - BA, 40050-050</t>
+  </si>
+  <si>
+    <t>UNACON_Martagao_Gesteira.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/SAMUR</t>
+  </si>
+  <si>
+    <t>Vitória da Conquista</t>
+  </si>
+  <si>
+    <t>Lot. Cristo Rei, Vitória da Conquista - BA, 45055-290</t>
+  </si>
+  <si>
+    <t>UNACON_SAMUR.jpg</t>
+  </si>
+  <si>
+    <t>UNACON/Santa Casa de Misericórdia</t>
+  </si>
+  <si>
+    <t>Quimioterapia, radioterapia, consulta oncológica e radioterápica, onco-hematologia, cirurgia oncológica, cirurgia cabeça/pescoço, cirurgia toráxica e uro-oncologia.</t>
+  </si>
   <si>
     <t>Feira de Santana</t>
   </si>
   <si>
-    <t>Quimioterapia, radioterapia, consulta oncológica e radioterápica, onco-hematologia, cirurgia oncológica, cirurgia cabeça/pescoço, cirurgia toráxica e uro-oncologia.</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Ilhéus</t>
-  </si>
-  <si>
-    <t>UNACON/Santa Casa de Misericórdia</t>
-  </si>
-  <si>
-    <t>Juazeiro</t>
-  </si>
-  <si>
-    <t>UNACON/Hospital Regional de Juazeiro</t>
-  </si>
-  <si>
-    <t>Cirurgia, radioterapia e quimioterapia</t>
-  </si>
-  <si>
-    <t>Vitória da Conquista</t>
-  </si>
-  <si>
-    <t>Lot. Cristo Rei, Vitória da Conquista - BA, 45055-290</t>
-  </si>
-  <si>
-    <t>Praça Conselheiro Almeida Couto, 500, Nazaré, Salvador - BA. </t>
-  </si>
-  <si>
-    <t>Quimioterapia, consultas clínicas, tratamentos avançados, atendimento de urgência e emergência, intervenção cirúrgica, radioterapia. </t>
-  </si>
-  <si>
-    <t>UNACON/Martagão Gesteira</t>
-  </si>
-  <si>
-    <t>Oncopediatria</t>
-  </si>
-  <si>
-    <t>R. José Duarte, 114, Tororó. Salvador - BA, 40050-050</t>
-  </si>
-  <si>
-    <t>Quimioterapia, radioterapia (em fase de implantação), além de atendimento ambulatorial e internação para tratamento do câncer, incluindo o câncer de mama e colo do útero. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cirurgias, radioterapia, quimioterapia, além de cuidados paliativos e unidades de oncopediatria. </t>
-  </si>
-  <si>
-    <t>UNACON/Hospital São José/Santa Casa de Misericórdia de Ilhéus</t>
-  </si>
-  <si>
-    <t>UNACON/Hospital Geral Roberto Santos/CICAN</t>
-  </si>
-  <si>
-    <t>UNACON/Hospital da Mulher</t>
-  </si>
-  <si>
-    <t>UNACON/Hospital Santa Izabel</t>
-  </si>
-  <si>
-    <t>CACON/Hospital Aristides Maltês (HAM)</t>
-  </si>
-  <si>
-    <t>UNACON/SAMUR</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>R. Carlos Valadares, 1078, Queimadinha, Feira de Santana - BA, 44050-192</t>
   </si>
   <si>
-    <t>Av. Dom João VI,  332, Brotas, Salvador - BA</t>
-  </si>
-  <si>
-    <t>R. Barão de Cotegipe, 1153, Roma, Salvador - BA, 40411-900</t>
-  </si>
-  <si>
-    <t>R. Direta do Saboeiro, s/n,  Cabula, Salvador - BA, 40301-110</t>
-  </si>
-  <si>
-    <t>R. Ladeira da Vitória, 113, Centro, Ilhéus - BA, 45653-420</t>
-  </si>
-  <si>
-    <t>R. Santo Antonio, s/n,  Juazeiro - BA, 48902-010</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>ICONE</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>ALTA COMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>Dialise, consulta multiprofissional e exames</t>
-  </si>
-  <si>
-    <t>hand-holding-droplet</t>
-  </si>
-  <si>
-    <t>MÉDIA E ALTA COMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>Serviço de diagnose e terapia, ambulatório de especialidades e internação, centro de parto normal</t>
-  </si>
-  <si>
-    <t>hospital</t>
-  </si>
-  <si>
-    <t>MÉDIA COMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>Apoio Diagnóstico com serviços de consultas clínicas especializadas em exames gráficos e de imagem</t>
-  </si>
-  <si>
-    <t>house-chimney-medical</t>
-  </si>
-  <si>
-    <t>Oncologia clínica e cirúrgica, quimioterapia, mastologia, urologia e ginecologia</t>
-  </si>
-  <si>
-    <t>circle-radiation</t>
-  </si>
-  <si>
-    <t>UNACON/Irecê</t>
-  </si>
-  <si>
-    <t>Clínica de Hemodiálise de Irecê</t>
-  </si>
-  <si>
-    <t>Hospital Regional Dr. Mário Dourado Sobrinho</t>
-  </si>
-  <si>
-    <t>Policlínica Regional de Irecê</t>
-  </si>
-  <si>
-    <t>SERVICOS</t>
-  </si>
-  <si>
-    <t>MUNICIPIO</t>
-  </si>
-  <si>
-    <t>ENDERECO</t>
-  </si>
-  <si>
-    <t>NM_PT</t>
-  </si>
-  <si>
-    <t>NM_ARQ</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>CACON_Hospital_Aristides_Maltes_HAM.jpg</t>
-  </si>
-  <si>
-    <t>Clinica_de_Hemodialise_de_Irece.jpg</t>
-  </si>
-  <si>
-    <t>Hospital_Regional_Dr_Mario_Dourado_Sobrinho.jpg</t>
-  </si>
-  <si>
-    <t>Policlinica_Regional_de_Irece.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Hospital_da_Mulher.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Hospital_Geral_Roberto_Santos_CICAN.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Hospital_Regional_de_Juazeiro.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Hospital_Santa_Izabel.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Hospital_Sao_Jose_Santa_Casa_de_Misericordia_de_Ilheus.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Irece.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_Martagao_Gesteira.jpg</t>
-  </si>
-  <si>
-    <t>UNACON_SAMUR.jpg</t>
-  </si>
-  <si>
     <t>UNACON_Santa_Casa_de_Misericordia.jpg</t>
-  </si>
-  <si>
-    <t>yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +303,13 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -671,10 +702,10 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -690,401 +721,446 @@
     <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30.75">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="30.75">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45.75">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45.75">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.75">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.75">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30.75">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30.75">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.75">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="9"/>
     </row>
   </sheetData>

--- a/DADOS/Planilhas/Atributos.xlsx
+++ b/DADOS/Planilhas/Atributos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3pb33j-my.sharepoint.com/personal/cristianosseng_3pb33j_onmicrosoft_com/Documents/Geoprocessamento/TCC/TCC_Python/DADOS/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CCF46C-E68E-494C-A6F1-33EA40232548}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADAD40DC-5825-446F-B890-0C256CE4479F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>circle-radiation</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>UNACON_Hospital_da_Mulher.jpg</t>
   </si>
   <si>
@@ -270,13 +267,16 @@
   </si>
   <si>
     <t>UNACON_Santa_Casa_de_Misericordia.jpg</t>
+  </si>
+  <si>
+    <t>beige</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,11 +701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5230EAE1-B514-49DA-BF73-379CD0EEB8A4}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -721,7 +721,7 @@
     <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30.75">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45.75">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57.75">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -889,137 +889,137 @@
         <v>39</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.5">
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30.75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1028,139 +1028,139 @@
         <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30.75">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
     </row>
   </sheetData>

--- a/DADOS/Planilhas/Atributos.xlsx
+++ b/DADOS/Planilhas/Atributos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3pb33j-my.sharepoint.com/personal/cristianosseng_3pb33j_onmicrosoft_com/Documents/Geoprocessamento/TCC/TCC_Python/DADOS/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADAD40DC-5825-446F-B890-0C256CE4479F}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{2EE41685-D6FB-40CE-B223-018201B70649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CE0F20E-F6D0-4D30-AED9-105491089564}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C909F03A-8188-4246-B341-6CFDDBF6B67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -119,21 +119,6 @@
     <t>Serviço de diagnose e terapia, ambulatório de especialidades e internação, centro de parto normal</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Praça teodoro sampaio, s/n - Centro, Irecê - BA, 44900-000</t>
-    </r>
-  </si>
-  <si>
     <t>Hospital_Regional_Dr_Mario_Dourado_Sobrinho.jpg</t>
   </si>
   <si>
@@ -270,13 +255,16 @@
   </si>
   <si>
     <t>beige</t>
+  </si>
+  <si>
+    <t>Praça Teodoro Sampaio, s/n - Centro, Irecê - BA, 44900-000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,20 +276,25 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -309,7 +302,6 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,39 +324,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,89 +696,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5230EAE1-B514-49DA-BF73-379CD0EEB8A4}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" style="6"/>
-    <col min="17" max="17" width="47.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="16.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.140625" style="9"/>
+    <col min="17" max="17" width="47.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -792,27 +787,27 @@
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -821,347 +816,353 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
